--- a/PROJECT AKHIR/progress_tugasakhir.xlsx
+++ b/PROJECT AKHIR/progress_tugasakhir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b581395f532bb3f/KULIAH2/Pemodelan_Mat/PROJECT AKHIR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{A88ACB29-97C6-4C5C-9C8B-F2ACEC73554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7E2EAFF-D720-4ECE-907C-22ECF3443869}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{A88ACB29-97C6-4C5C-9C8B-F2ACEC73554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE8759FD-E341-4B60-AD54-67102DB1C9B8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F0D7B77-0BE9-42CE-90F8-D077DF31C4A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Rabu, 19 Februari 2025</t>
-  </si>
-  <si>
-    <t>Senin, 25 Februari 2025</t>
   </si>
   <si>
     <t>Mendapat 5 jurnal:
@@ -77,6 +74,33 @@
   </si>
   <si>
     <t>Membahas topik pemodelan penyakit dan mencari artikel pendukung.</t>
+  </si>
+  <si>
+    <t>Senin, 3 Maret 2025</t>
+  </si>
+  <si>
+    <t>Senin, 24 Februari 2025</t>
+  </si>
+  <si>
+    <t>Rabu, 26 Februari 2025</t>
+  </si>
+  <si>
+    <t>Jumat, 28 Februari 2025</t>
+  </si>
+  <si>
+    <t>Diskusi identifikasi masalah dalam jurnal</t>
+  </si>
+  <si>
+    <t>Diskusi langkah berikutnya yaitu formulasi masalah matematika sampai penurunan model matematika</t>
+  </si>
+  <si>
+    <t>Selasa, 4 Maret 2025</t>
+  </si>
+  <si>
+    <t>Diskusi penyelesaian model, coding, validasi model, dan penggunaan model.</t>
+  </si>
+  <si>
+    <t>Memilih 1 jurnal yang akan dipresentasikan yaitu https://journal.uinsgd.ac.id/index.php/kubik/article/view/4112</t>
   </si>
 </sst>
 </file>
@@ -166,11 +190,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -187,6 +211,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E872E7-E32B-4306-B32B-4B47F5A2935A}">
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,10 +528,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
@@ -523,8 +551,8 @@
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>11</v>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
@@ -546,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="116" x14ac:dyDescent="0.35">
@@ -554,35 +582,55 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
